--- a/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
@@ -691,6 +691,9 @@
       <c r="C31" t="str">
         <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -752,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0555555510558015151512824510691611910551050</v>
+        <v>0555555510558015151512824510691611910551056</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -695,9 +695,92 @@
         <v>6</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F32" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>5</v>
+      </c>
+      <c r="C33" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F33" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>6</v>
+      </c>
+      <c r="C38" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -755,7 +838,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0555555510558015151512824510691611910551056</v>
+        <v>0555555510558015151512824510691611910551056233015551551450</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
@@ -777,6 +777,9 @@
       <c r="C41" t="str">
         <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -838,7 +841,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0555555510558015151512824510691611910551056233015551551450</v>
+        <v>0555555510558015151512824510691611910551056233015551551455</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -781,9 +781,173 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>691_银莲紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>7</v>
+      </c>
+      <c r="C46" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F47" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>556_马尾松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="C51" t="str" xml:space="preserve">
+        <v xml:space="preserve">345_天竺少女_Cryptomeria
+Kashiwaba_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>369_芦苇叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>344_钢草_steal grass_Xanthorrhoea preissii Endl._1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>475_诺贝松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>319_尤加利叶带果_Eucalyptus leaves with small pods_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -841,7 +1005,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0555555510558015151512824510691611910551056233015551551455</v>
+        <v>05555555105580151515128245106916119105510562330155515514555555221451055520555555100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
@@ -944,6 +944,9 @@
       <c r="C61" t="str">
         <v>319_尤加利叶带果_Eucalyptus leaves with small pods_undefined_1bunch</v>
       </c>
+      <c r="F61" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1005,7 +1008,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05555555105580151515128245106916119105510562330155515514555555221451055520555555100</v>
+        <v>05555555105580151515128245106916119105510562330155515514555555221451055520555555101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -945,12 +945,353 @@
         <v>319_尤加利叶带果_Eucalyptus leaves with small pods_undefined_1bunch</v>
       </c>
       <c r="F61" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>2</v>
+      </c>
+      <c r="C62" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>592_进口春兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F64" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>3</v>
+      </c>
+      <c r="C71" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F71" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F72" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F73" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F74" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F75" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>615_康乃馨野马_horse_undefined_20stems</v>
+      </c>
+      <c r="F76" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>616_康乃馨紫精灵_Purple Elves_undefined_20stems</v>
+      </c>
+      <c r="F77" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>4</v>
+      </c>
+      <c r="C79" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F79" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F80" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F81" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F82" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>5</v>
+      </c>
+      <c r="C83" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F83" t="str">
         <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F84" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F85" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F86" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F87" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F88" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>6</v>
+      </c>
+      <c r="C89" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F89" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>744_永生吊米深红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F90" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>7</v>
+      </c>
+      <c r="C91" t="str">
+        <v>743_永生吊米红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F91" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>743_永生吊米红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F92" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>8</v>
+      </c>
+      <c r="C93" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F93" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F94" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F95" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>1</v>
+      </c>
+      <c r="C96" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F96" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F97" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F98" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F99" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F100" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1008,7 +1349,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05555555105580151515128245106916119105510562330155515514555555221451055520555555101</v>
+        <v>05555555105580151515128245106916119105510562330155515514555555221451055520555555101520206081512101010101551520552012163101117101520155030201576812121050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
@@ -1288,6 +1288,9 @@
       <c r="C101" t="str">
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F101" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1349,7 +1352,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05555555105580151515128245106916119105510562330155515514555555221451055520555555101520206081512101010101551520552012163101117101520155030201576812121050</v>
+        <v>05555555105580151515128245106916119105510562330155515514555555221451055520555555101520206081512101010101551520552012163101117101520155030201576812121051</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1289,12 +1289,179 @@
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F101" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>2</v>
+      </c>
+      <c r="C102" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F102" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F103" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F104" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>3</v>
+      </c>
+      <c r="C105" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F105" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F106" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F107" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="str">
+        <v>247_苏芬_Sofine_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F108" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="str">
+        <v>227_多头卡布奇诺_Cappuccino spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F109" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F110" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="str">
+        <v>625_多丁紫蝴蝶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F111" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="str">
+        <v>623_粉太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F112" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F113" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F114" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>4</v>
+      </c>
+      <c r="C115" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F115" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F116" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" xml:space="preserve">
+      <c r="C117" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F117" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F118" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F119" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="str">
+        <v>374_八角叶_Fatsia japonica_undefined_1bunch</v>
+      </c>
+      <c r="F120" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L121"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1352,7 +1519,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05555555105580151515128245106916119105510562330155515514555555221451055520555555101520206081512101010101551520552012163101117101520155030201576812121051</v>
+        <v>05555555105580151515128245106916119105510562330155515514555555221451055520555555101520206081512101010101551520552012163101117101520155030201576812121051020131775115561010310181020105100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1458,10 +1458,174 @@
       <c r="A121" t="str">
         <v>5</v>
       </c>
+      <c r="C121" t="str">
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F121" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F122" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="str">
+        <v>593_常春藤_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F123" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F124" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F125" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" xml:space="preserve">
+      <c r="C126" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F126" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F127" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="str">
+        <v>575_迷你菊深粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F128" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="C129" t="str">
+        <v>601_康乃馨大红_red_undefined_20stems</v>
+      </c>
+      <c r="F129" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="C130" t="str">
+        <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
+      </c>
+      <c r="F130" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="C131" t="str">
+        <v>679_锦鲤白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F131" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" t="str">
+        <v>683_锦鲤红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F132" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" t="str">
+        <v>680_锦鲤黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F133" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="C134" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F134" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="C135" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F135" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F136" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="C137" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F137" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="C138" t="str">
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F138" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="C139" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F139" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="C140" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F140" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L121"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L141"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1519,7 +1683,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05555555105580151515128245106916119105510562330155515514555555221451055520555555101520206081512101010101551520552012163101117101520155030201576812121051020131775115561010310181020105100</v>
+        <v>055555551055801515151282451069161191055105623301555155145555552214510555205555551015202060815121010101015515205520121631011171015201550302015768121210510201317751155610103101810201051020305402055510105535205205550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1622,10 +1622,83 @@
       <c r="A141" t="str">
         <v>6</v>
       </c>
+      <c r="C141" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F141" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="C142" t="str">
+        <v>669_大丽花 红_undefined_undefined_5stems</v>
+      </c>
+      <c r="F142" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="C143" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F143" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="C144" t="str">
+        <v>513_松虫草粉白_scabiosa rainbow_undefined_1bunch</v>
+      </c>
+      <c r="F144" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="C145" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F145" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="C146" t="str">
+        <v>718_银莲白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F146" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="C147" t="str">
+        <v>719_银莲红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F147" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="C148" t="str">
+        <v>691_银莲紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F148" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>7</v>
+      </c>
+      <c r="C149" t="str">
+        <v>470_海芋白_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F149" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L141"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L149"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1683,7 +1756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>055555551055801515151282451069161191055105623301555155145555552214510555205555551015202060815121010101015515205520121631011171015201550302015768121210510201317751155610103101810201051020305402055510105535205205550</v>
+        <v>05555555105580151515128245106916119105510562330155515514555555221451055520555555101520206081512101010101551520552012163101117101520155030201576812121051020131775115561010310181020105102030540205551010553520520555105551510556</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-28.xlsx
@@ -1758,6 +1758,9 @@
       <c r="G2" t="str">
         <v>05555555105580151515128245106916119105510562330155515514555555221451055520555555101520206081512101010101551520552012163101117101520155030201576812121051020131775115561010310181020105102030540205551010553520520555105551510556</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
